--- a/P0100/09_FICHAS/N2-FP-MODELO.xlsx
+++ b/P0100/09_FICHAS/N2-FP-MODELO.xlsx
@@ -1,139 +1,186 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9C99CB-70E2-4ADE-B403-A692EF921FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{EA9C99CB-70E2-4ADE-B403-A692EF921FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7155264C-212D-4524-9D66-E4A1170D31FA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Código de proyecto</t>
-  </si>
-  <si>
-    <t>Código de producto</t>
-  </si>
-  <si>
-    <t>Nombre del producto</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Autor 1</t>
-  </si>
-  <si>
-    <t>Autor 2</t>
-  </si>
-  <si>
-    <t>Autor 3</t>
-  </si>
-  <si>
-    <t>Descripción (objeto, supuestos, resultados)</t>
-  </si>
-  <si>
-    <t>Tipo de producto</t>
-  </si>
-  <si>
-    <t>Tipo del Modelo</t>
-  </si>
-  <si>
-    <t>área de conocimiento del modelo</t>
-  </si>
-  <si>
-    <t>Se cuenta con archivos  Nativos</t>
-  </si>
-  <si>
-    <t>Archivos del Modelo</t>
-  </si>
-  <si>
-    <t>Software (Nombre y versión)</t>
-  </si>
-  <si>
-    <t>Tipo de Licencia</t>
-  </si>
-  <si>
-    <t>Nivel de consumo de recursos computacionales</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado 1</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado2</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado3</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado4</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado5</t>
-  </si>
-  <si>
-    <t>Cantidad de Escenarios simulados</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 1</t>
-  </si>
-  <si>
-    <t>Descripción escenario 1</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 2</t>
-  </si>
-  <si>
-    <t>Descripción escenario 2</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 3</t>
-  </si>
-  <si>
-    <t>Descripción escenario 3</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 4</t>
-  </si>
-  <si>
-    <t>Descripción escenario 4</t>
-  </si>
-  <si>
-    <t>Nombre escenario 5</t>
-  </si>
-  <si>
-    <t>Descripción escenario 5</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Palabras Clave</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <si>
+    <t>CODIGO DE PROYECTO</t>
+  </si>
+  <si>
+    <t>CODIGO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIRECTORIO</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>AUTOR 1</t>
+  </si>
+  <si>
+    <t>AUTOR 2</t>
+  </si>
+  <si>
+    <t>AUTOR 3</t>
+  </si>
+  <si>
+    <t>AUTOR 4</t>
+  </si>
+  <si>
+    <t>AUTOR 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>TIPO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>TIPO DE MODELO</t>
+  </si>
+  <si>
+    <t>AREA DE CONOCIMIENTO DEL MODELO</t>
+  </si>
+  <si>
+    <t>SE CUENTA CON ARCHIVOS NATIVOS</t>
+  </si>
+  <si>
+    <t>SOFTWARE</t>
+  </si>
+  <si>
+    <t>TIPO DE LICENCIA</t>
+  </si>
+  <si>
+    <t>NIVEL DE CONSUMO DE RECURSOS COMPUTACIONALES</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 1</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 2</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 3</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 4</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 5</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE ESCENARIOS SIMULADOS</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 1</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 1</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 2</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 2</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 3</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 3</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 4</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 4</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 5</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 6</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 6</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 7</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 7</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 8</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 8</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 9</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 9</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 10</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 10</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,16 +207,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,15 +507,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,8 +618,44 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -607,8 +690,20 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -643,8 +738,20 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -679,6 +786,18 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
